--- a/regions/11/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
+++ b/regions/11/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +142,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -531,12 +532,13 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="64.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -559,7 +561,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -580,7 +582,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="4"/>
       <c r="B3" s="8">
         <v>2006</v>
@@ -627,11 +629,15 @@
       <c r="P3" s="9">
         <v>2020</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="Q3" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="9">
+        <v>2022</v>
+      </c>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -680,11 +686,15 @@
       <c r="P4" s="11">
         <v>58.3</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="Q4" s="11">
+        <v>62.9</v>
+      </c>
+      <c r="R4" s="11">
+        <v>62.4</v>
+      </c>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15.75">
       <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
@@ -733,11 +743,15 @@
       <c r="P5" s="11">
         <v>105.1</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="Q5" s="11">
+        <v>64.5</v>
+      </c>
+      <c r="R5" s="11">
+        <v>62.4</v>
+      </c>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
@@ -786,11 +800,15 @@
       <c r="P6" s="17">
         <v>949</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="Q6" s="17">
+        <v>845</v>
+      </c>
+      <c r="R6" s="17">
+        <v>916</v>
+      </c>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15.75">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
@@ -839,11 +857,15 @@
       <c r="P7" s="17">
         <v>871</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="Q7" s="17">
+        <v>778</v>
+      </c>
+      <c r="R7" s="17">
+        <v>734</v>
+      </c>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15.75">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -892,11 +914,15 @@
       <c r="P8" s="17">
         <v>1102.8</v>
       </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="Q8" s="11">
+        <v>847.8</v>
+      </c>
+      <c r="R8" s="11">
+        <v>1257.5999999999999</v>
+      </c>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15.75">
       <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
@@ -945,11 +971,15 @@
       <c r="P9" s="11">
         <v>79.2</v>
       </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="Q9" s="11">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="R9" s="11">
+        <v>40.5</v>
+      </c>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15.75">
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
@@ -998,11 +1028,15 @@
       <c r="P10" s="11">
         <v>12</v>
       </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="Q10" s="11">
+        <v>8</v>
+      </c>
+      <c r="R10" s="11">
+        <v>11.3</v>
+      </c>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15.75">
       <c r="A11" s="19" t="s">
         <v>3</v>
       </c>
@@ -1051,11 +1085,15 @@
       <c r="P11" s="11">
         <v>25.9</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="Q11" s="11">
+        <v>30.8</v>
+      </c>
+      <c r="R11" s="11">
+        <v>21.9</v>
+      </c>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
@@ -1104,11 +1142,15 @@
       <c r="P12" s="11">
         <v>0.4</v>
       </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="Q12" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="R12" s="11">
+        <v>0.9</v>
+      </c>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="19" t="s">
         <v>4</v>
       </c>
@@ -1157,11 +1199,15 @@
       <c r="P13" s="11">
         <v>75.900000000000006</v>
       </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="Q13" s="11">
+        <v>34.1</v>
+      </c>
+      <c r="R13" s="11">
+        <v>40.5</v>
+      </c>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1179,7 +1225,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1196,31 +1242,31 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:19" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="5" customFormat="1" ht="12.75">
       <c r="A16" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6">
       <c r="F17" s="22"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:6">
       <c r="F19" s="22"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:6">
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:6">
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:6">
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:6">
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:6">
       <c r="F27" s="22"/>
     </row>
   </sheetData>
